--- a/paper/paperlist.xlsx
+++ b/paper/paperlist.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALEX\Doc\Reference\SoundNet\PeriodicalLearning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61447DB4-6C7C-43CC-BE47-643A131E6F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34522029-E29D-4BEA-AF3F-EFFAEBF574B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="220">
   <si>
     <t>AAAI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,13 +189,582 @@
   <si>
     <t>Car-a deep learning structure for concurrent activity recognition</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key words</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Higher-Order</t>
+  </si>
+  <si>
+    <t>Sensor-based activity recognition via learning from distributions</t>
+  </si>
+  <si>
+    <t>AAAI 18</t>
+  </si>
+  <si>
+    <t>1. Statistical feature, e.g. mean, variance, etc is very important.                                              2.Low order moment can not distinguish different activities.                                                   3. Higher order is better but how to decide suitable orders ?                                                 4. Mapping to Reproducing Kernel Hilbert Space by kernel embedding</t>
+  </si>
+  <si>
+    <t>RKHS is a high-dimensional or even infinite-dimensional feature space, which is able to capture any order of moments of the probability distribution. The mean map operations in such higher order can distinguish the feature effecitvely</t>
+  </si>
+  <si>
+    <t>Use Fixed Gaussian Kernel, hence parameter tuning of proper bandwidth for kernel is required in advance</t>
+  </si>
+  <si>
+    <t>A Novel Distribution-Embedded Neural Network for Sensor-Based Activity Recognition</t>
+  </si>
+  <si>
+    <t>IJCAI 19</t>
+  </si>
+  <si>
+    <t>Inspired by above, The Kernal embedding process is replaced by a Neural Network f(.). Meanwhile, a decoder is implemented to make the NN more injective.  Instead of the Single Fixed Kernel, multiple kernels are combined together. Temporal and spatial information are also involved,.</t>
+  </si>
+  <si>
+    <t>More computational, Only the mean operation is involved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical </t>
+  </si>
+  <si>
+    <t>Deep activity recognition models with triaxial accelerometers.</t>
+  </si>
+  <si>
+    <t>AAAI 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Deep Generative model is implemented to extracting hierarchical features, which can analyze the inner relationship between visible (input) and hidden state. </t>
+  </si>
+  <si>
+    <t>This is a prior work that implement the generative model in sensor feature extraction. The model is DBNs and the hidden units are formed from RBMs. After training, the hidden states can represent the visible layer accurately and reconstruct the visible in the meanwhile.</t>
+  </si>
+  <si>
+    <t>The input of this work are 2d spectrum img. However, the DBNs cannot form the 2D structure because of the input is  vectoral form. Also, the DBNs does not deal with temporal information clearly.</t>
+  </si>
+  <si>
+    <t>IoT  18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This work is similar as above. They use Stacked Denoising Autoencoders as the hidden units to replace the RBMs in DBNs. This method can make the neural network deeper and maintain the same training criteria. SD-Auto-EC is also good at noise reduction which make the extracted feature more robustness. </t>
+  </si>
+  <si>
+    <t>Compared with DBNs, stacked denoising autoencoders are discrimination model, which means it is difficult to sample the input space . The feature may not be intrinsic as generative model.  The temporal information are poorly involved</t>
+  </si>
+  <si>
+    <t>Latent representation</t>
+  </si>
+  <si>
+    <t>Motion2Vector: unsupervised learning in human activity recognition using wrist-sensing data</t>
+  </si>
+  <si>
+    <t>Ubicom 19</t>
+  </si>
+  <si>
+    <t>Unsupervised learning method with auto-encoder to embed the input  to a multidimensional space, as a feature representation of a certain activity type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  variational autoeccoder composed of Bidirectional LSTM layer can effectively embed the temporal information of the input. </t>
+  </si>
+  <si>
+    <t>They directly implement the VAE to the data embedding. The size of hidden vector is 128 which highly constrain the  time period of the  movement. The segmentation is very important</t>
+  </si>
+  <si>
+    <t>Deep Auto-Set: A Deep Auto-Encoder-Set Network for Activity Recognition Using Wearables</t>
+  </si>
+  <si>
+    <t>MobiQ  18</t>
+  </si>
+  <si>
+    <t>The work implement a normal AutoEC to extract the hidden feature. The extracted hidden feature is used to distinguish the multi-activities in a same Window.</t>
+  </si>
+  <si>
+    <t>The temporal information is poorly involved. The ratio of muti-activities in a same window is highly influence the results</t>
+  </si>
+  <si>
+    <t>Intrinsic</t>
+  </si>
+  <si>
+    <t>Distributionally Robust Semi-Supervised Learning for People-Centric Sensing</t>
+  </si>
+  <si>
+    <t>AAAI 19</t>
+  </si>
+  <si>
+    <t>These two work both aim at removing the person-centric information and maintain the task-content information. Hierarchical structure are implemented to solve the problems.</t>
+  </si>
+  <si>
+    <t>They use different auto-ec extract the task-specific consistency and remove the person-specific discrepancy. The adversarial loss is implemeted.</t>
+  </si>
+  <si>
+    <t>Assume the labeled data and unlabeled are in a different distribution. The shift problem are not well defined in Sensor errors. They do not distinguish the wearable error and user-centric error</t>
+  </si>
+  <si>
+    <t>Collective Protection: Preventing Sensitive Inferences via Integrative Transformation</t>
+  </si>
+  <si>
+    <t>ICDM 19</t>
+  </si>
+  <si>
+    <t>Transform the data into a "random noise" style which can protect the sensitive information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The wearable error will influence the performance. High computation. It is difficult to balance the content loss and user-privacy loss. </t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77 out of 113 features are used for OPPOR, with run 2 from subject 1 as validation set, runs 4 and 5 from subject 2 and 3 as test set and the rest as training set. Sliding windows of 1 second duration with 50% overlap is applied.</t>
+  </si>
+  <si>
+    <t>PAMAP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 protocol activities are studied, with data downsampled to 33Hz. Sliding window length is 5.12 seconds with 1 second as step size. Runs 1 and 2 for subject 5 are used as validation set, and runs 1 and 2 for subject 6 are used as test set, with the rest being training set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The raw data of DG is downsampled to 32Hz as well. Sliding window du- ration is 1 second with half overlap. We use subject 9’s first run as validation set, subject 2’s runs 1 and 2 as test set with the rest being training set.</t>
+  </si>
+  <si>
+    <t>DG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCIHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WISDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The UCIHAR has been preprocessed and segmented by data provider beforehand, where the raw data is randomly partitioned into two sets, where 70% of the volunteers generated training data and 30% the test data. The sensor signals were pre-processed by applying noise fil- ters and then sampled in sliding windows of 2.56 second (128 readings).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This dataset contains 1,098,207 triaxial accelerometer readings gathered from 36 users which reflect activity patterns of walking, jogging, sit- ting, standing, and climbing stairs. The acceleration measurements are collected with Android mobile phones at a constant sampling rate of 20 Hz. We randomly select record- ings from 8 users as the testing set and use the remaining data as our training and validation sets.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each sample in the resulting dataset corresponds to 113 real valued signal measurements recorded with a sampling rate of 30 Hz. We employ the same subset of data as in the Opportunity challenge [6] for training and testing purposes: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ADL runs 4 and 5 collected from subjects 2 and 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> compose our testing set, and the remainder of the recordings from subjects 1,2 and 3 form our training and validation sets.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.825] [mc] [info] GetRunIndSegProcessedValueListRight: 240 raw = 240</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.825] [mc] [info] GetRunIndSegProcessedValueListRight: 243 raw = 243</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.825] [mc] [info] GetRunIndSegProcessedValueListRight: 223 raw = 223</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.825] [mc] [info] GetRunIndSegProcessedValueListRight: 234 raw = 234</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.825] [mc] [info] GetRunIndSegProcessedValueListRight: 236 raw = 236</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.825] [mc] [info] GetRunIndSegProcessedValueListRight: 246 raw = 246</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.825] [mc] [info] GetRunIndSegProcessedValueListRight: 231 raw = 231</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.825] [mc] [info] GetRunIndSegProcessedValueListRight: 260 raw = 260</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 241 raw = 241</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 238 raw = 238</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 260 raw = 260</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 237 raw = 237</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 233 raw = 233</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 262 raw = 262</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 239 raw = 239</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 272 raw = 272</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 230 raw = 230</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 216 raw = 216</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 251 raw = 251</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 250 raw = 250</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 243 raw = 243</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 224 raw = 224</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 280 raw = 280</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 235 raw = 235</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 244 raw = 244</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 223 raw = 223</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 240 raw = 240</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 252 raw = 252</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 231 raw = 231</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 236 raw = 236</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 189 raw = 189</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] GetRunIndSegProcessedValueListRight: 258 raw = 258</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 240 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 243 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 243 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 223 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 234 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 236 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 246 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 231 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 260 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 241 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 238 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 260 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 237 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 238 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 233 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 262 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 239 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 272 Risk = 1</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 230 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 216 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 251 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 238 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 250 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 224 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 280 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 235 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 244 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 223 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 240 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 252 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 239 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 231 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 224 Risk = 5</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 236 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 233 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 189 Risk = 5</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.831] [mc] [info] PostProcessedResultFinalPrint: Result = 258 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 261 raw = 261</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 237 raw = 237</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 240 raw = 240</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 234 raw = 234</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 218 raw = 218</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 243 raw = 243</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 242 raw = 242</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 238 raw = 238</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 231 raw = 231</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 246 raw = 246</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 247 raw = 247</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 252 raw = 252</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 249 raw = 249</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 245 raw = 245</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 236 raw = 236</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 226 raw = 226</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 244 raw = 244</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 239 raw = 239</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 233 raw = 233</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 260 raw = 260</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 254 raw = 254</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 203 raw = 203</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] GetRunIndSegProcessedValueListLeft: 220 raw = 220</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 261 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 237 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 240 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 234 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 218 Risk = 5</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 243 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 242 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 238 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 231 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 246 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 247 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 252 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 247 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 238 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 231 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 249 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 237 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 245 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 245 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 236 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 226 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 242 Risk = 4</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 238 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 244 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 239 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 233 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 260 Risk = 2</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 254 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 247 Risk = 3</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 203 Risk = 5</t>
+  </si>
+  <si>
+    <t>[2020-03-11 20:20:47.823] [mc] [info] PostProcessedResultFinalPrint: Result = 220 Risk = 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,19 +787,111 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EBF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -237,13 +900,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -724,4 +1415,981 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA90D89-DCE5-4462-87C3-7F30E0EADB6A}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.08203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="45.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" style="10" customWidth="1"/>
+    <col min="5" max="7" width="35.58203125" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="55.9140625" customWidth="1"/>
+    <col min="9" max="9" width="60.08203125" customWidth="1"/>
+    <col min="10" max="10" width="47.58203125" customWidth="1"/>
+    <col min="11" max="11" width="51.83203125" customWidth="1"/>
+    <col min="12" max="12" width="46.08203125" customWidth="1"/>
+    <col min="13" max="14" width="30.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47C14D3-53C4-4C7A-AE64-BB122B4B6880}">
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="85.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>